--- a/jt.xlsx
+++ b/jt.xlsx
@@ -329,10 +329,10 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.85"/>
@@ -425,6 +425,7 @@
         <v>46</v>
       </c>
       <c r="J3" s="0" t="n">
+        <f aca="false">SUM(K3:P3)</f>
         <v>46</v>
       </c>
       <c r="K3" s="0" t="n">
@@ -442,6 +443,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="0" t="n">
+        <f aca="false">SUM(K4:P4)</f>
         <v>45</v>
       </c>
       <c r="K4" s="0" t="n">
@@ -459,6 +461,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="0" t="n">
+        <f aca="false">SUM(K5:P5)</f>
         <v>45</v>
       </c>
       <c r="K5" s="0" t="n">
@@ -480,6 +483,10 @@
       <c r="B7" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">SUM(K7:P7)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
@@ -489,13 +496,14 @@
         <v>39</v>
       </c>
       <c r="J8" s="0" t="n">
+        <f aca="false">SUM(K8:P8)</f>
         <v>39</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
@@ -503,6 +511,7 @@
         <v>220</v>
       </c>
       <c r="J9" s="5" t="n">
+        <f aca="false">SUM(K9:P9)</f>
         <v>220</v>
       </c>
       <c r="K9" s="5" t="n">

--- a/jt.xlsx
+++ b/jt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">CALL</t>
   </si>
@@ -82,30 +82,82 @@
     <t xml:space="preserve">YL2IU</t>
   </si>
   <si>
+    <t xml:space="preserve">Uldis Kalnins</t>
+  </si>
+  <si>
     <t xml:space="preserve">YL3GBC</t>
   </si>
   <si>
-    <t xml:space="preserve">VK2FCDM</t>
+    <t xml:space="preserve">Arnis Armans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yl3gbc@yl3gbc.lv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VK2FCMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Borthwick</t>
   </si>
   <si>
     <t xml:space="preserve">9W2GEE</t>
   </si>
   <si>
+    <t xml:space="preserve">Raymond Wong</t>
+  </si>
+  <si>
     <t xml:space="preserve">YL2II</t>
   </si>
   <si>
+    <t xml:space="preserve">Janis Ivan Belov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yl2ii@inbox.lv</t>
+  </si>
+  <si>
     <t xml:space="preserve">EI3CTB</t>
   </si>
   <si>
+    <t xml:space="preserve">Justin Behan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ei3ctb@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">SN1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP9JCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQ2Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW0SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP6EIY/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JH1BCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA3DTK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV6F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LW5DR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -119,16 +171,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -222,7 +277,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +299,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,15 +385,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.57"/>
@@ -388,7 +448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -405,23 +465,30 @@
         <v>18</v>
       </c>
       <c r="F2" s="0" t="n">
+        <f aca="false">SUM(J2)</f>
         <v>32</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>32</v>
       </c>
       <c r="J2" s="0" t="n">
+        <f aca="false">SUM(K2:P2)</f>
         <v>32</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="F3" s="0" t="n">
+        <f aca="false">SUM(J3)</f>
         <v>46</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -435,11 +502,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="n">
+        <f aca="false">SUM(J4)</f>
         <v>45</v>
       </c>
       <c r="J4" s="0" t="n">
@@ -455,9 +529,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="n">
+        <f aca="false">SUM(J5)</f>
         <v>45</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -470,29 +548,57 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="n">
+        <f aca="false">SUM(J6)</f>
+        <v>41</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">SUM(K6:P6)</f>
         <v>41</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">SUM(J7)</f>
+        <v>78</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">SUM(K7:P7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="0" t="n">
+        <f aca="false">SUM(J8)</f>
         <v>39</v>
       </c>
       <c r="J8" s="0" t="n">
@@ -503,24 +609,206 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <f aca="false">SUM(J9)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="6" t="n">
         <f aca="false">SUM(K9:P9)</f>
         <v>220</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <v>220</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">SUM(J10)</f>
+        <v>48</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">SUM(K10:P10)</f>
+        <v>48</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">SUM(J11)</f>
+        <v>124</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">SUM(K11:P11)</f>
+        <v>124</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">SUM(J12)</f>
+        <v>216</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">SUM(K12:P12)</f>
+        <v>216</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">SUM(J13)</f>
+        <v>85</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">SUM(K13:P13)</f>
+        <v>85</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">SUM(J14)</f>
+        <v>104</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">SUM(K14:P14)</f>
+        <v>104</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">SUM(J15)</f>
+        <v>43</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">SUM(K15:P15)</f>
+        <v>43</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">SUM(J16)</f>
+        <v>196</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">SUM(K16:P16)</f>
+        <v>196</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">SUM(J17)</f>
+        <v>45</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">SUM(K17:P17)</f>
+        <v>45</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="eu1eu@mail.ru"/>
+    <hyperlink ref="D4" r:id="rId2" display="yl3gbc@yl3gbc.lv"/>
+    <hyperlink ref="D7" r:id="rId3" display="yl2ii@inbox.lv"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/jt.xlsx
+++ b/jt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">CALL</t>
   </si>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">Uldis Kalnins</t>
   </si>
   <si>
+    <t xml:space="preserve">uldy2005@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">YL3GBC</t>
   </si>
   <si>
@@ -149,6 +152,15 @@
   </si>
   <si>
     <t xml:space="preserve">LW5DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU6DKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lu6dkt2018@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -385,17 +397,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="7"/>
@@ -486,7 +498,9 @@
       <c r="C3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="0" t="n">
         <f aca="false">SUM(J3)</f>
         <v>46</v>
@@ -504,13 +518,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">SUM(J4)</f>
@@ -529,10 +543,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(J5)</f>
@@ -548,10 +562,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">SUM(J6)</f>
@@ -567,13 +581,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">SUM(J7)</f>
@@ -589,13 +603,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">SUM(J8)</f>
@@ -611,7 +625,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="n">
         <f aca="false">SUM(J9)</f>
@@ -627,7 +641,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">SUM(J10)</f>
@@ -658,7 +672,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">SUM(J11)</f>
@@ -674,7 +688,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">SUM(J12)</f>
@@ -690,7 +704,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">SUM(J13)</f>
@@ -715,7 +729,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">SUM(J14)</f>
@@ -737,7 +751,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">SUM(J15)</f>
@@ -759,7 +773,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">SUM(J16)</f>
@@ -787,7 +801,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">SUM(J17)</f>
@@ -804,11 +818,35 @@
         <v>4</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">SUM(J18)</f>
+        <v>59</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">SUM(K18:P18)</f>
+        <v>59</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="eu1eu@mail.ru"/>
-    <hyperlink ref="D4" r:id="rId2" display="yl3gbc@yl3gbc.lv"/>
-    <hyperlink ref="D7" r:id="rId3" display="yl2ii@inbox.lv"/>
+    <hyperlink ref="D3" r:id="rId2" display="uldy2005@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="yl3gbc@yl3gbc.lv"/>
+    <hyperlink ref="D7" r:id="rId4" display="yl2ii@inbox.lv"/>
+    <hyperlink ref="D18" r:id="rId5" display="lu6dkt2018@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/jt.xlsx
+++ b/jt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">CALL</t>
   </si>
@@ -103,12 +103,18 @@
     <t xml:space="preserve">Michael Borthwick</t>
   </si>
   <si>
+    <t xml:space="preserve">vk2fcmd@wia.org.au</t>
+  </si>
+  <si>
     <t xml:space="preserve">9W2GEE</t>
   </si>
   <si>
     <t xml:space="preserve">Raymond Wong</t>
   </si>
   <si>
+    <t xml:space="preserve">9w2gee@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">YL2II</t>
   </si>
   <si>
@@ -130,28 +136,82 @@
     <t xml:space="preserve">SN1A</t>
   </si>
   <si>
+    <t xml:space="preserve">Wies Dyduch (SP1EG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp1eg@wp.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">SP9JCN</t>
   </si>
   <si>
+    <t xml:space="preserve">Jacek Kawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp9jcn@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">RQ2Q</t>
   </si>
   <si>
+    <t xml:space="preserve">Valeriy Fukalov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ra3qdg@mail.ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">RW0SR</t>
   </si>
   <si>
+    <t xml:space="preserve">Vladimir Dorono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rw0sw@mail.ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">SP6EIY/P</t>
   </si>
   <si>
+    <t xml:space="preserve">Stanislaw Starzyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp6eiy@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">JH1BCS</t>
   </si>
   <si>
+    <t xml:space="preserve">Keiji Ito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ito@khh.biglobe.ne.jp</t>
+  </si>
+  <si>
     <t xml:space="preserve">UA3DTK</t>
   </si>
   <si>
+    <t xml:space="preserve">Valentin  Vlasov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49oktober20@mail.ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">RV6F</t>
   </si>
   <si>
+    <t xml:space="preserve">Vasily Rudomanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rv6f@mail.ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">LW5DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Luis Bertole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lw5dr@yahoo.com.ar</t>
   </si>
   <si>
     <t xml:space="preserve">LU6DKT</t>
@@ -400,13 +460,13 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.57"/>
@@ -541,12 +601,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>26</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">SUM(J5)</f>
@@ -560,12 +623,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">SUM(J6)</f>
@@ -581,13 +647,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">SUM(J7)</f>
@@ -603,13 +669,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">SUM(J8)</f>
@@ -625,7 +691,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="F9" s="6" t="n">
         <f aca="false">SUM(J9)</f>
@@ -639,9 +711,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">SUM(J10)</f>
@@ -670,9 +748,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">SUM(J11)</f>
@@ -686,9 +770,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">SUM(J12)</f>
@@ -702,9 +792,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">SUM(J13)</f>
@@ -727,9 +823,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">SUM(J14)</f>
@@ -749,9 +851,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">SUM(J15)</f>
@@ -771,9 +879,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">SUM(J16)</f>
@@ -799,9 +913,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">SUM(J17)</f>
@@ -820,13 +940,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">SUM(J18)</f>
@@ -845,8 +965,20 @@
     <hyperlink ref="D2" r:id="rId1" display="eu1eu@mail.ru"/>
     <hyperlink ref="D3" r:id="rId2" display="uldy2005@gmail.com"/>
     <hyperlink ref="D4" r:id="rId3" display="yl3gbc@yl3gbc.lv"/>
-    <hyperlink ref="D7" r:id="rId4" display="yl2ii@inbox.lv"/>
-    <hyperlink ref="D18" r:id="rId5" display="lu6dkt2018@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="vk2fcmd@wia.org.au"/>
+    <hyperlink ref="D6" r:id="rId5" display="9w2gee@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId6" display="yl2ii@inbox.lv"/>
+    <hyperlink ref="D8" r:id="rId7" display="ei3ctb@hotmail.com"/>
+    <hyperlink ref="D9" r:id="rId8" display="sp1eg@wp.pl"/>
+    <hyperlink ref="D10" r:id="rId9" display="sp9jcn@gmail.com"/>
+    <hyperlink ref="D11" r:id="rId10" display="ra3qdg@mail.ru"/>
+    <hyperlink ref="D12" r:id="rId11" display="rw0sw@mail.ru"/>
+    <hyperlink ref="D13" r:id="rId12" display="sp6eiy@gmail.com"/>
+    <hyperlink ref="D14" r:id="rId13" display="ito@khh.biglobe.ne.jp"/>
+    <hyperlink ref="D15" r:id="rId14" display="49oktober20@mail.ru"/>
+    <hyperlink ref="D16" r:id="rId15" display="rv6f@mail.ru"/>
+    <hyperlink ref="D17" r:id="rId16" display="lw5dr@yahoo.com.ar"/>
+    <hyperlink ref="D18" r:id="rId17" display="lu6dkt2018@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
